--- a/results/origin_arousal/s04.xlsx
+++ b/results/origin_arousal/s04.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1.0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>batch_size</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>cnn_fc</t>
   </si>
   <si>
     <t>conv_1</t>
@@ -41,7 +36,7 @@
     <t>conv_3</t>
   </si>
   <si>
-    <t>conv_fuse</t>
+    <t>conv_4</t>
   </si>
   <si>
     <t>epoch</t>
@@ -59,19 +54,7 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>n_person</t>
-  </si>
-  <si>
     <t>norm</t>
-  </si>
-  <si>
-    <t>pool_1</t>
-  </si>
-  <si>
-    <t>pool_2</t>
-  </si>
-  <si>
-    <t>pool_3</t>
   </si>
   <si>
     <t>regularization</t>
@@ -92,28 +75,22 @@
     <t>train_sample</t>
   </si>
   <si>
-    <t>N</t>
+    <t>4*4*32</t>
   </si>
   <si>
-    <t>3*3*1*32</t>
+    <t>4*4*64</t>
   </si>
   <si>
-    <t>3*3*1*64</t>
+    <t>4*4*128</t>
   </si>
   <si>
-    <t>3*3*1*128</t>
-  </si>
-  <si>
-    <t>plus</t>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>concat</t>
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>dropout</t>
@@ -129,6 +106,15 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
   <si>
     <t>fpr</t>
@@ -486,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,96 +535,60 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="n">
-        <v>0.510000005364418</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1024</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="O2" t="n">
         <v>1024</v>
       </c>
-      <c r="U2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="P2" t="n">
         <v>128</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Q2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="R2" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -663,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -686,13 +636,13 @@
         <v>0.4874999970197678</v>
       </c>
       <c r="C2" t="n">
-        <v>999.3988952636719</v>
+        <v>998.88427734375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5171590935100209</v>
+        <v>0.5322727262973785</v>
       </c>
       <c r="E2" t="n">
-        <v>998.3319702148438</v>
+        <v>997.8333795720881</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -700,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.4724999964237213</v>
       </c>
       <c r="C3" t="n">
-        <v>982.5782165527344</v>
+        <v>980.87353515625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5660227266224948</v>
+        <v>0.5663636435161937</v>
       </c>
       <c r="E3" t="n">
-        <v>981.1963168057529</v>
+        <v>979.7162364612926</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -717,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4525000005960464</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C4" t="n">
-        <v>965.5794067382812</v>
+        <v>963.0115661621094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5432954647324302</v>
+        <v>0.576477278362621</v>
       </c>
       <c r="E4" t="n">
-        <v>964.1672030362216</v>
+        <v>961.8758322975852</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -734,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="C5" t="n">
-        <v>948.8082580566406</v>
+        <v>945.42578125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5814772790128534</v>
+        <v>0.6073863668875261</v>
       </c>
       <c r="E5" t="n">
-        <v>947.3392389470881</v>
+        <v>944.3049760298295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -751,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C6" t="n">
-        <v>932.1078796386719</v>
+        <v>928.0595703125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5931818214329806</v>
+        <v>0.6012500036846508</v>
       </c>
       <c r="E6" t="n">
-        <v>930.6665205522017</v>
+        <v>926.9820279208096</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -768,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C7" t="n">
-        <v>915.6582641601562</v>
+        <v>911.0547485351562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5930681824684143</v>
+        <v>0.6001136357134039</v>
       </c>
       <c r="E7" t="n">
-        <v>914.2339366566051</v>
+        <v>909.9749478426846</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C8" t="n">
-        <v>899.4483337402344</v>
+        <v>894.3552856445312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6079545454545454</v>
+        <v>0.6056818203492598</v>
       </c>
       <c r="E8" t="n">
-        <v>898.0443004261364</v>
+        <v>893.2648315429688</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -802,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4899999797344208</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C9" t="n">
-        <v>883.4799499511719</v>
+        <v>877.9732055664062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6073863668875261</v>
+        <v>0.6212499954483726</v>
       </c>
       <c r="E9" t="n">
-        <v>882.0814763849431</v>
+        <v>876.8555741743608</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -819,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4874999821186066</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C10" t="n">
-        <v>867.7318420410156</v>
+        <v>861.8577575683594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6131818294525146</v>
+        <v>0.6126136454668912</v>
       </c>
       <c r="E10" t="n">
-        <v>866.3557572798295</v>
+        <v>860.7795299183239</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -836,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4800000190734863</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C11" t="n">
-        <v>852.2142028808594</v>
+        <v>846.077392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6231818253343756</v>
+        <v>0.6469318162311207</v>
       </c>
       <c r="E11" t="n">
-        <v>850.8668212890625</v>
+        <v>844.9291104403409</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -853,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4625000059604645</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C12" t="n">
-        <v>836.9606628417969</v>
+        <v>830.536376953125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6223863525824114</v>
+        <v>0.6565909114750949</v>
       </c>
       <c r="E12" t="n">
-        <v>835.6349986683239</v>
+        <v>829.3894986239346</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -870,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C13" t="n">
-        <v>821.947021484375</v>
+        <v>815.3080749511719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6463636430827054</v>
+        <v>0.6640909043225375</v>
       </c>
       <c r="E13" t="n">
-        <v>820.6302823153409</v>
+        <v>814.1484652432529</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -887,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C14" t="n">
-        <v>807.1576232910156</v>
+        <v>800.2587890625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6442045406861738</v>
+        <v>0.659431820566004</v>
       </c>
       <c r="E14" t="n">
-        <v>805.8732244318181</v>
+        <v>799.1531926935369</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -904,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C15" t="n">
-        <v>792.6631164550781</v>
+        <v>785.5921936035156</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6686363599517129</v>
+        <v>0.6763636307282881</v>
       </c>
       <c r="E15" t="n">
-        <v>791.3927556818181</v>
+        <v>784.4621693004261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -921,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4949999898672104</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C16" t="n">
-        <v>778.361083984375</v>
+        <v>771.1499328613281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6644318157976324</v>
+        <v>0.6868181770498102</v>
       </c>
       <c r="E16" t="n">
-        <v>777.0982055664062</v>
+        <v>770.0217950994319</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4874999821186066</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C17" t="n">
-        <v>764.2606811523438</v>
+        <v>756.9255981445312</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6648863554000854</v>
+        <v>0.6872727274894714</v>
       </c>
       <c r="E17" t="n">
-        <v>763.0682594992898</v>
+        <v>755.8424682617188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C18" t="n">
-        <v>750.4535827636719</v>
+        <v>742.9870910644531</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6718181805177168</v>
+        <v>0.6860227313908663</v>
       </c>
       <c r="E18" t="n">
-        <v>749.2801569158381</v>
+        <v>741.917558149858</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -972,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C19" t="n">
-        <v>736.9007568359375</v>
+        <v>729.26220703125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6553409045392816</v>
+        <v>0.6853409030220725</v>
       </c>
       <c r="E19" t="n">
-        <v>735.7677945223721</v>
+        <v>728.2488847212358</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -989,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4724999964237213</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C20" t="n">
-        <v>723.5764465332031</v>
+        <v>715.8252563476562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6678409034555609</v>
+        <v>0.6784090941602533</v>
       </c>
       <c r="E20" t="n">
-        <v>722.461220481179</v>
+        <v>714.8630093661221</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1006,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="C21" t="n">
-        <v>710.4748840332031</v>
+        <v>702.6463317871094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.679431828585538</v>
+        <v>0.6947727311741222</v>
       </c>
       <c r="E21" t="n">
-        <v>709.4001964222301</v>
+        <v>701.6728349165483</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1023,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4924999922513962</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C22" t="n">
-        <v>697.6078186035156</v>
+        <v>689.69384765625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.681477275761691</v>
+        <v>0.7063636346296831</v>
       </c>
       <c r="E22" t="n">
-        <v>696.5636707652699</v>
+        <v>688.740478515625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1040,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4500000029802322</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C23" t="n">
-        <v>685.0024108886719</v>
+        <v>676.9603271484375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.678636372089386</v>
+        <v>0.7064772681756453</v>
       </c>
       <c r="E23" t="n">
-        <v>683.9541625976562</v>
+        <v>676.0465753728694</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4675000011920929</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C24" t="n">
-        <v>672.5785827636719</v>
+        <v>664.4682312011719</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6849999969655817</v>
+        <v>0.7053409164602106</v>
       </c>
       <c r="E24" t="n">
-        <v>671.5762662020596</v>
+        <v>663.5883511629971</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1074,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5050000101327896</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C25" t="n">
-        <v>660.3582458496094</v>
+        <v>652.2289733886719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6856818090785634</v>
+        <v>0.7153409069234674</v>
       </c>
       <c r="E25" t="n">
-        <v>659.4136574485085</v>
+        <v>651.3584150834517</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1091,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C26" t="n">
-        <v>648.4010620117188</v>
+        <v>640.1882629394531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.692272733558308</v>
+        <v>0.7202272740277377</v>
       </c>
       <c r="E26" t="n">
-        <v>647.4528475674716</v>
+        <v>639.3468405983665</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1108,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.5224999934434891</v>
       </c>
       <c r="C27" t="n">
-        <v>636.6332702636719</v>
+        <v>628.37353515625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6979545517401262</v>
+        <v>0.7207954580133612</v>
       </c>
       <c r="E27" t="n">
-        <v>635.7110762162642</v>
+        <v>627.5636319247159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1125,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.502499982714653</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C28" t="n">
-        <v>625.0824584960938</v>
+        <v>616.7956848144531</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7078409194946289</v>
+        <v>0.727954550222917</v>
       </c>
       <c r="E28" t="n">
-        <v>624.1835382634944</v>
+        <v>615.9977416992188</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1145,13 +1095,13 @@
         <v>0.5050000101327896</v>
       </c>
       <c r="C29" t="n">
-        <v>613.7613220214844</v>
+        <v>605.4192810058594</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7107954512942921</v>
+        <v>0.7272727381099354</v>
       </c>
       <c r="E29" t="n">
-        <v>612.882246537642</v>
+        <v>604.6469005237926</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1159,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4849999845027924</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C30" t="n">
-        <v>602.5645141601562</v>
+        <v>594.2090454101562</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7112500017339533</v>
+        <v>0.7234090837565336</v>
       </c>
       <c r="E30" t="n">
-        <v>601.7459217418324</v>
+        <v>593.5029463334517</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1176,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.502499982714653</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C31" t="n">
-        <v>591.6542358398438</v>
+        <v>583.25537109375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.707159085707231</v>
+        <v>0.7224999937144193</v>
       </c>
       <c r="E31" t="n">
-        <v>590.8259443803267</v>
+        <v>582.5620394620029</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C32" t="n">
-        <v>580.8681030273438</v>
+        <v>572.5171813964844</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7086363597349687</v>
+        <v>0.7361363606019453</v>
       </c>
       <c r="E32" t="n">
-        <v>580.108964399858</v>
+        <v>571.8273703835227</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1210,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C33" t="n">
-        <v>570.3602600097656</v>
+        <v>561.9985656738281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7080681865865533</v>
+        <v>0.7297727303071455</v>
       </c>
       <c r="E33" t="n">
-        <v>569.5809992009944</v>
+        <v>561.3052923029119</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1227,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4899999797344208</v>
+        <v>0.5</v>
       </c>
       <c r="C34" t="n">
-        <v>559.9638061523438</v>
+        <v>551.5903625488281</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7159090854904868</v>
+        <v>0.7361363714391534</v>
       </c>
       <c r="E34" t="n">
-        <v>559.2448619495739</v>
+        <v>550.9581409801136</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1244,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999850988388</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C35" t="n">
-        <v>549.7996826171875</v>
+        <v>541.412841796875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7088636322454973</v>
+        <v>0.7273863608186896</v>
       </c>
       <c r="E35" t="n">
-        <v>549.0845225941051</v>
+        <v>540.8139204545455</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1261,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4999999850988388</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C36" t="n">
-        <v>539.7919921875</v>
+        <v>531.4524230957031</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7140909054062583</v>
+        <v>0.7393181757493452</v>
       </c>
       <c r="E36" t="n">
-        <v>539.1141523881392</v>
+        <v>530.8548306551846</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1278,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C37" t="n">
-        <v>529.9934692382812</v>
+        <v>521.6819458007812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7136363603852012</v>
+        <v>0.7335227240215648</v>
       </c>
       <c r="E37" t="n">
-        <v>529.3282970081676</v>
+        <v>521.0922962535511</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1295,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.510000005364418</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C38" t="n">
-        <v>520.3662414550781</v>
+        <v>512.0567016601562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7245454625649885</v>
+        <v>0.7361363606019453</v>
       </c>
       <c r="E38" t="n">
-        <v>519.7200372869319</v>
+        <v>511.5047052556818</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1312,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4800000190734863</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C39" t="n">
-        <v>510.8967895507812</v>
+        <v>502.6151885986328</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7101136337627064</v>
+        <v>0.7325000004334883</v>
       </c>
       <c r="E39" t="n">
-        <v>510.2894758744673</v>
+        <v>502.1080266779119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1329,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C40" t="n">
-        <v>501.6242370605469</v>
+        <v>493.4141998291016</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7226136326789856</v>
+        <v>0.7393181811679493</v>
       </c>
       <c r="E40" t="n">
-        <v>501.0193731134588</v>
+        <v>492.8825017755682</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1346,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C41" t="n">
-        <v>492.5139770507812</v>
+        <v>484.3137359619141</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7207954634319652</v>
+        <v>0.7388636307282881</v>
       </c>
       <c r="E41" t="n">
-        <v>491.926308371804</v>
+        <v>483.8265242143111</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1363,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5075000077486038</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C42" t="n">
-        <v>483.5607604980469</v>
+        <v>475.4269714355469</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7167045474052429</v>
+        <v>0.7320454608310353</v>
       </c>
       <c r="E42" t="n">
-        <v>483.0011014071378</v>
+        <v>474.9462086070668</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1380,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5075000077486038</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C43" t="n">
-        <v>474.783447265625</v>
+        <v>466.697021484375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7270454493435946</v>
+        <v>0.7339772798798301</v>
       </c>
       <c r="E43" t="n">
-        <v>474.2408058860085</v>
+        <v>466.2326993075284</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1397,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5075000077486038</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C44" t="n">
-        <v>466.1696166992188</v>
+        <v>458.1291809082031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7194318175315857</v>
+        <v>0.7370454560626637</v>
       </c>
       <c r="E44" t="n">
-        <v>465.6419622247869</v>
+        <v>457.688007701527</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1414,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.510000005364418</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C45" t="n">
-        <v>457.6964416503906</v>
+        <v>449.7285461425781</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7284090898253701</v>
+        <v>0.7402272820472717</v>
       </c>
       <c r="E45" t="n">
-        <v>457.2017017711293</v>
+        <v>449.3022710626776</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1431,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C46" t="n">
-        <v>449.4169769287109</v>
+        <v>441.4920806884766</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7161363580010154</v>
+        <v>0.7309090928597883</v>
       </c>
       <c r="E46" t="n">
-        <v>448.915810324929</v>
+        <v>441.075703014027</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1448,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C47" t="n">
-        <v>441.2581024169922</v>
+        <v>433.4002075195312</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7224999937144193</v>
+        <v>0.7373863675377585</v>
       </c>
       <c r="E47" t="n">
-        <v>440.7824956720526</v>
+        <v>433.0042863325639</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1465,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C48" t="n">
-        <v>433.259033203125</v>
+        <v>425.4651947021484</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7236363616856661</v>
+        <v>0.7345454530282454</v>
       </c>
       <c r="E48" t="n">
-        <v>432.8026566938921</v>
+        <v>425.088661887429</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1482,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.510000005364418</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C49" t="n">
-        <v>425.4075775146484</v>
+        <v>417.693603515625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7212499976158142</v>
+        <v>0.7336363575675271</v>
       </c>
       <c r="E49" t="n">
-        <v>424.9693409312855</v>
+        <v>417.3212474476207</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1499,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5299999862909317</v>
       </c>
       <c r="C50" t="n">
-        <v>417.7114562988281</v>
+        <v>410.0626831054688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7231818275018171</v>
+        <v>0.7337500019506975</v>
       </c>
       <c r="E50" t="n">
-        <v>417.2821461070668</v>
+        <v>409.7041043368253</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1516,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C51" t="n">
-        <v>410.1492462158203</v>
+        <v>402.5681762695312</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7245454625649885</v>
+        <v>0.7320454499938271</v>
       </c>
       <c r="E51" t="n">
-        <v>409.7359008789062</v>
+        <v>402.2325855601918</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1533,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C52" t="n">
-        <v>402.7376251220703</v>
+        <v>395.2308044433594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7185227274894714</v>
+        <v>0.7303409034555609</v>
       </c>
       <c r="E52" t="n">
-        <v>402.3321838378906</v>
+        <v>394.8999356356534</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1550,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C53" t="n">
-        <v>395.4483032226562</v>
+        <v>388.0269012451172</v>
       </c>
       <c r="D53" t="n">
-        <v>0.719545456496152</v>
+        <v>0.7292045463215221</v>
       </c>
       <c r="E53" t="n">
-        <v>395.0665560635653</v>
+        <v>387.7108182040128</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1567,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5274999737739563</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C54" t="n">
-        <v>388.3234558105469</v>
+        <v>380.9705505371094</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7217045534740795</v>
+        <v>0.7289772629737854</v>
       </c>
       <c r="E54" t="n">
-        <v>387.9378051757812</v>
+        <v>380.6570351340554</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5075000077486038</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C55" t="n">
-        <v>381.2990417480469</v>
+        <v>374.032958984375</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7184090885249051</v>
+        <v>0.723977267742157</v>
       </c>
       <c r="E55" t="n">
-        <v>380.9399275346236</v>
+        <v>373.7364030317827</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1601,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C56" t="n">
-        <v>374.4260711669922</v>
+        <v>367.2396697998047</v>
       </c>
       <c r="D56" t="n">
-        <v>0.72272728248076</v>
+        <v>0.7262499982660467</v>
       </c>
       <c r="E56" t="n">
-        <v>374.0738553133878</v>
+        <v>366.9505088112571</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1618,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C57" t="n">
-        <v>367.6751251220703</v>
+        <v>360.5756378173828</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7203409075737</v>
+        <v>0.7215909090909091</v>
       </c>
       <c r="E57" t="n">
-        <v>367.3368918678977</v>
+        <v>360.2946916060014</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1635,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C58" t="n">
-        <v>361.0541839599609</v>
+        <v>354.0321807861328</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7175000039013949</v>
+        <v>0.7257954586635936</v>
       </c>
       <c r="E58" t="n">
-        <v>360.7275418368253</v>
+        <v>353.7652088512074</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1652,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5050000101327896</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C59" t="n">
-        <v>354.5594329833984</v>
+        <v>347.6183624267578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7118181748823686</v>
+        <v>0.7242045402526855</v>
       </c>
       <c r="E59" t="n">
-        <v>354.2393188476562</v>
+        <v>347.3612587668679</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1669,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5274999886751175</v>
       </c>
       <c r="C60" t="n">
-        <v>348.1873779296875</v>
+        <v>341.3385925292969</v>
       </c>
       <c r="D60" t="n">
-        <v>0.715568179433996</v>
+        <v>0.7146590893918817</v>
       </c>
       <c r="E60" t="n">
-        <v>347.8765758167614</v>
+        <v>341.0821449973366</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1686,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5075000077486038</v>
+        <v>0.5224999934434891</v>
       </c>
       <c r="C61" t="n">
-        <v>341.9202728271484</v>
+        <v>335.1586151123047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7093181881037626</v>
+        <v>0.7188636389645663</v>
       </c>
       <c r="E61" t="n">
-        <v>341.6337751908736</v>
+        <v>334.9219055175781</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1703,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C62" t="n">
-        <v>335.7997589111328</v>
+        <v>329.1162109375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7113636352799155</v>
+        <v>0.7117045521736145</v>
       </c>
       <c r="E62" t="n">
-        <v>335.505654074929</v>
+        <v>328.8782182173296</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1720,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C63" t="n">
-        <v>329.7703094482422</v>
+        <v>323.1750335693359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7096590941602533</v>
+        <v>0.7104545452378013</v>
       </c>
       <c r="E63" t="n">
-        <v>329.4935802112926</v>
+        <v>322.9509610262784</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1737,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4899999797344208</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C64" t="n">
-        <v>323.8661346435547</v>
+        <v>317.3624725341797</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7115909132090482</v>
+        <v>0.7075000026009299</v>
       </c>
       <c r="E64" t="n">
-        <v>323.5958418412642</v>
+        <v>317.1394486860796</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1754,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5050000101327896</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C65" t="n">
-        <v>318.0737457275391</v>
+        <v>311.6542053222656</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7077272805300626</v>
+        <v>0.7080681703307412</v>
       </c>
       <c r="E65" t="n">
-        <v>317.8115511807528</v>
+        <v>311.4370783025568</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1771,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C66" t="n">
-        <v>312.3846893310547</v>
+        <v>306.0498352050781</v>
       </c>
       <c r="D66" t="n">
-        <v>0.708749998699535</v>
+        <v>0.7072727300904014</v>
       </c>
       <c r="E66" t="n">
-        <v>312.1333923339844</v>
+        <v>305.8464605158026</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1788,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C67" t="n">
-        <v>306.8152160644531</v>
+        <v>300.5697326660156</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7069318186153065</v>
+        <v>0.7001136324622415</v>
       </c>
       <c r="E67" t="n">
-        <v>306.5651827725497</v>
+        <v>300.3629732998934</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1805,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C68" t="n">
-        <v>301.3397674560547</v>
+        <v>295.1839294433594</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7092045491391962</v>
+        <v>0.7068181850693442</v>
       </c>
       <c r="E68" t="n">
-        <v>301.1022644042969</v>
+        <v>294.9845913973722</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1822,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C69" t="n">
-        <v>295.9757843017578</v>
+        <v>289.9026489257812</v>
       </c>
       <c r="D69" t="n">
-        <v>0.70431818745353</v>
+        <v>0.6980681744488803</v>
       </c>
       <c r="E69" t="n">
-        <v>295.740683815696</v>
+        <v>289.7093089710582</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1839,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C70" t="n">
-        <v>290.7073059082031</v>
+        <v>284.7231292724609</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7073863636363636</v>
+        <v>0.6987499973990701</v>
       </c>
       <c r="E70" t="n">
-        <v>290.4826965332031</v>
+        <v>284.5362021706321</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1856,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.510000005364418</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C71" t="n">
-        <v>285.5455017089844</v>
+        <v>279.6453094482422</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6997727209871466</v>
+        <v>0.6993181813846935</v>
       </c>
       <c r="E71" t="n">
-        <v>285.3254560990767</v>
+        <v>279.4629710804332</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,1465 +1839,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.6537216828478966</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5771428571428572</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.753731343283582</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.009433962264150943</v>
+        <v>0.3742690058479533</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02985074626865672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02985074626865672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06716417910447761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06716417910447761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09701492537313433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.0660377358490566</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09701492537313433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.0660377358490566</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1119402985074627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1119402985074627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1194029850746269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1194029850746269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1343283582089552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1343283582089552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1492537313432836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1492537313432836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="n">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1567164179104478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="n">
-        <v>0.1792452830188679</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1567164179104478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="n">
-        <v>0.1792452830188679</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1716417910447761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="n">
-        <v>0.1886792452830189</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1716417910447761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="n">
-        <v>0.1886792452830189</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1791044776119403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="n">
-        <v>0.1981132075471698</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1791044776119403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="n">
-        <v>0.1981132075471698</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1865671641791045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="n">
-        <v>0.2075471698113208</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1865671641791045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="n">
-        <v>0.2075471698113208</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.1940298507462687</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="n">
-        <v>0.2169811320754717</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1940298507462687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="n">
-        <v>0.2169811320754717</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2014925373134328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="n">
-        <v>0.2358490566037736</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.2014925373134328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="n">
-        <v>0.2358490566037736</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2313432835820896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="n">
-        <v>0.2452830188679245</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2313432835820896</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="n">
-        <v>0.2452830188679245</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2462686567164179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="n">
-        <v>0.2735849056603774</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.2462686567164179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="n">
-        <v>0.2735849056603774</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.2537313432835821</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="n">
-        <v>0.2830188679245283</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.2537313432835821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="n">
-        <v>0.2830188679245283</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2761194029850746</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="n">
-        <v>0.2924528301886792</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2761194029850746</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="n">
-        <v>0.2924528301886792</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.2835820895522388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="n">
         <v>0.3018867924528302</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.2835820895522388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="n">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.291044776119403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="n">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.291044776119403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="n">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.3208955223880597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="n">
-        <v>0.3679245283018868</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.3208955223880597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="n">
-        <v>0.3679245283018868</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.3358208955223881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="n">
-        <v>0.3773584905660378</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3358208955223881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="n">
-        <v>0.3773584905660378</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.3507462686567164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="n">
-        <v>0.3962264150943396</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3507462686567164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="n">
-        <v>0.3962264150943396</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.3656716417910448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="n">
-        <v>0.4056603773584906</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.3656716417910448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="n">
-        <v>0.4056603773584906</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4029850746268657</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="n">
-        <v>0.4245283018867925</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.4029850746268657</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="n">
-        <v>0.4245283018867925</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.4253731343283582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="n">
-        <v>0.4339622641509434</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.4253731343283582</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="n">
-        <v>0.4339622641509434</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.4552238805970149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="n">
-        <v>0.4433962264150944</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4552238805970149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="n">
-        <v>0.4433962264150944</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.4626865671641791</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="n">
-        <v>0.4528301886792453</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.4626865671641791</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="n">
-        <v>0.4528301886792453</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.4776119402985075</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="n">
-        <v>0.4622641509433962</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.4776119402985075</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="n">
-        <v>0.4622641509433962</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5149253731343284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="n">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5149253731343284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="n">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5223880597014925</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="n">
-        <v>0.4811320754716981</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5223880597014925</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>0.4811320754716981</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5298507462686567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5298507462686567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5447761194029851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>0.5094339622641509</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.5447761194029851</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>0.5094339622641509</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.5597014925373134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>0.5188679245283019</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.5597014925373134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>0.5188679245283019</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.5746268656716418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>0.5283018867924528</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.5746268656716418</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>0.5283018867924528</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.582089552238806</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>0.5377358490566038</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.582089552238806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>0.5377358490566038</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.5895522388059702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>0.5566037735849056</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.5895522388059702</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="n">
-        <v>0.5566037735849056</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.5970149253731343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="n">
-        <v>0.5849056603773585</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.5970149253731343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="n">
-        <v>0.5849056603773585</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.6044776119402985</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="n">
-        <v>0.6037735849056604</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.6044776119402985</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="n">
-        <v>0.6037735849056604</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.6119402985074627</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>0.6132075471698113</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.6119402985074627</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>0.6132075471698113</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.6194029850746269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="n">
-        <v>0.6320754716981132</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.6194029850746269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="n">
-        <v>0.6320754716981132</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.6343283582089553</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="n">
-        <v>0.6415094339622641</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.6343283582089553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="n">
-        <v>0.6415094339622641</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.6865671641791045</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="n">
-        <v>0.660377358490566</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.6865671641791045</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="n">
-        <v>0.660377358490566</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.7089552238805971</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="n">
-        <v>0.6886792452830188</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.7089552238805971</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="n">
-        <v>0.6886792452830188</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.7164179104477612</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="n">
-        <v>0.7075471698113207</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.7164179104477612</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="n">
-        <v>0.7075471698113207</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.7238805970149254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="n">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.7238805970149254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.7313432835820896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.7313432835820896</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="n">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.7388059701492538</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="n">
-        <v>0.7547169811320755</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.7388059701492538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="n">
-        <v>0.7547169811320755</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.753731343283582</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="n">
-        <v>0.7641509433962265</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.753731343283582</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="n">
-        <v>0.7641509433962265</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.7686567164179104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="n">
-        <v>0.7735849056603774</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.7686567164179104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="n">
-        <v>0.7735849056603774</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.7910447761194029</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="n">
-        <v>0.7924528301886793</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.7910447761194029</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="n">
-        <v>0.7924528301886793</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.8059701492537313</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.8059701492537313</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="n">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.8134328358208955</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="n">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.8134328358208955</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="n">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.835820895522388</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.8301886792452831</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.835820895522388</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.8301886792452831</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.8507462686567164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.8507462686567164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.8582089552238806</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>0.8490566037735849</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8582089552238806</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="n">
-        <v>0.8490566037735849</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.8656716417910447</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="n">
-        <v>0.8584905660377359</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.8656716417910447</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="n">
-        <v>0.8584905660377359</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9029850746268657</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="n">
-        <v>0.8773584905660378</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9029850746268657</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="n">
-        <v>0.8773584905660378</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>0.9056603773584906</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9104477611940298</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.9056603773584906</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.917910447761194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.9339622641509434</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.917910447761194</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.9339622641509434</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.9528301886792453</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>0.9528301886792453</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9477611940298507</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9477611940298507</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.9716981132075472</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9552238805970149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>0.9716981132075472</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="n">
-        <v>0.9811320754716981</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="n">
-        <v>0.9811320754716981</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.9925373134328358</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="n">
-        <v>1</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.9925373134328358</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3385,7 +1905,1401 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.007462686567164179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01492537313432836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.01886792452830189</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01492537313432836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.01886792452830189</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02985074626865672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.02830188679245283</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02985074626865672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.02830188679245283</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04477611940298507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04477611940298507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05223880597014925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05223880597014925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06716417910447761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.08490566037735849</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.06716417910447761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.08490566037735849</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08208955223880597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08208955223880597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08955223880597014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.1037735849056604</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08955223880597014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.1037735849056604</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1044776119402985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.1415094339622641</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1044776119402985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.1415094339622641</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1343283582089552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1343283582089552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1567164179104478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>0.169811320754717</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1567164179104478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0.169811320754717</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1641791044776119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1641791044776119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0.1886792452830189</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1865671641791045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>0.1981132075471698</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1865671641791045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0.1981132075471698</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.208955223880597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.2075471698113208</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.208955223880597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.2075471698113208</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2164179104477612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2164179104477612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2313432835820896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2313432835820896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2388059701492537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0.2358490566037736</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2388059701492537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0.2358490566037736</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2462686567164179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2462686567164179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2686567164179104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0.2547169811320755</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2686567164179104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0.2547169811320755</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.291044776119403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0.2735849056603774</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.291044776119403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0.2735849056603774</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2985074626865671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0.2830188679245283</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2985074626865671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0.2830188679245283</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3208955223880597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0.2924528301886792</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3208955223880597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0.2924528301886792</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3656716417910448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>0.3113207547169811</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3656716417910448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0.3113207547169811</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3805970149253731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3805970149253731</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0.330188679245283</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3880597014925373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0.3396226415094339</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3880597014925373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0.3396226415094339</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4253731343283582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0.3490566037735849</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4253731343283582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.3490566037735849</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4402985074626866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4402985074626866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4477611940298508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.3679245283018868</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4477611940298508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.3679245283018868</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4552238805970149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4552238805970149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4626865671641791</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.3867924528301887</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.4626865671641791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.3867924528301887</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4850746268656717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0.3962264150943396</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4850746268656717</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0.3962264150943396</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0.4245283018867925</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0.4245283018867925</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0.4622641509433962</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0.4622641509433962</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5373134328358209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5373134328358209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5522388059701493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5522388059701493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5671641791044776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5671641791044776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.582089552238806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.582089552238806</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6119402985074627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6119402985074627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0.5566037735849056</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.6194029850746269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6194029850746269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>0.5660377358490566</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6268656716417911</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>0.5849056603773585</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6268656716417911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0.5849056603773585</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6417910447761194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0.5943396226415094</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6417910447761194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0.5943396226415094</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6567164179104478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0.6132075471698113</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6567164179104478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0.6132075471698113</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.664179104477612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0.6320754716981132</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.664179104477612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0.6320754716981132</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.6716417910447762</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.6716417910447762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7164179104477612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7164179104477612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7238805970149254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7238805970149254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7313432835820896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7313432835820896</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7388059701492538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7388059701492538</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7835820895522388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7835820895522388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7910447761194029</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7910447761194029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.8283582089552238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8283582089552238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.835820895522388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0.7641509433962265</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.835820895522388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0.7641509433962265</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8656716417910447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8805970149253731</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8805970149253731</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9029850746268657</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9029850746268657</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9253731343283582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9253731343283582</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9328358208955224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9328358208955224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9402985074626866</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9402985074626866</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9552238805970149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9552238805970149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9626865671641791</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9626865671641791</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9701492537313433</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9701492537313433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9925373134328358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9925373134328358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5479442410588566</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5479442410588565</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3396,7 +3310,7 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3407,10 +3321,10 @@
         <v>0.007462686567164179</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3418,10 +3332,10 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3429,120 +3343,120 @@
         <v>0.02985074626865672</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02830188679245283</v>
+        <v>0.1037735849056604</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.03731343283582089</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02830188679245283</v>
+        <v>0.1037735849056604</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.03731343283582089</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.1226415094339623</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.1226415094339623</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.1320754716981132</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07462686567164178</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04716981132075472</v>
+        <v>0.1320754716981132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.07462686567164178</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.1415094339622641</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08208955223880597</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.1415094339622641</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.08208955223880597</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09433962264150944</v>
+        <v>0.1792452830188679</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08955223880597014</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09433962264150944</v>
+        <v>0.1792452830188679</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.08955223880597014</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1226415094339623</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3550,10 +3464,10 @@
         <v>0.09701492537313433</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1226415094339623</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3561,1263 +3475,1186 @@
         <v>0.09701492537313433</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1415094339622641</v>
+        <v>0.1981132075471698</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1343283582089552</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1415094339622641</v>
+        <v>0.1981132075471698</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1343283582089552</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1417910447761194</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1417910447761194</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C22" t="n">
-        <v>0.160377358490566</v>
+        <v>0.2358490566037736</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.160377358490566</v>
+        <v>0.2358490566037736</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.169811320754717</v>
+        <v>0.2547169811320755</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C25" t="n">
-        <v>0.169811320754717</v>
+        <v>0.2547169811320755</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1792452830188679</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1792452830188679</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.2924528301886792</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1940298507462687</v>
+        <v>0.2164179104477612</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.2924528301886792</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1940298507462687</v>
+        <v>0.2164179104477612</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.208955223880597</v>
+        <v>0.2611940298507462</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.208955223880597</v>
+        <v>0.2611940298507462</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.3207547169811321</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2313432835820896</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.3207547169811321</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2313432835820896</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2358490566037736</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2462686567164179</v>
+        <v>0.2761194029850746</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2358490566037736</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2462686567164179</v>
+        <v>0.2761194029850746</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.3490566037735849</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2611940298507462</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.3490566037735849</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2611940298507462</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2735849056603774</v>
+        <v>0.3584905660377358</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2686567164179104</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2735849056603774</v>
+        <v>0.3584905660377358</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2686567164179104</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.3679245283018868</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2761194029850746</v>
+        <v>0.3358208955223881</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.3679245283018868</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2761194029850746</v>
+        <v>0.3358208955223881</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2924528301886792</v>
+        <v>0.3867924528301887</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2924528301886792</v>
+        <v>0.3867924528301887</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2835820895522388</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.4056603773584906</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.291044776119403</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3113207547169811</v>
+        <v>0.4056603773584906</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.291044776119403</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.4150943396226415</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3134328358208955</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.4150943396226415</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3134328358208955</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3584905660377358</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3656716417910448</v>
+        <v>0.3805970149253731</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3584905660377358</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3656716417910448</v>
+        <v>0.3805970149253731</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3679245283018868</v>
+        <v>0.4433962264150944</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3805970149253731</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3679245283018868</v>
+        <v>0.4433962264150944</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3805970149253731</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3867924528301887</v>
+        <v>0.4716981132075472</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3867924528301887</v>
+        <v>0.4716981132075472</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3962264150943396</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3955223880597015</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3962264150943396</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3955223880597015</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.5188679245283019</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4029850746268657</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.5188679245283019</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4029850746268657</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4433962264150944</v>
+        <v>0.5283018867924528</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4104477611940299</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4433962264150944</v>
+        <v>0.5283018867924528</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4104477611940299</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4622641509433962</v>
+        <v>0.5377358490566038</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.417910447761194</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4622641509433962</v>
+        <v>0.5377358490566038</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.417910447761194</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.5754716981132075</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4253731343283582</v>
+        <v>0.5</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.5754716981132075</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4253731343283582</v>
+        <v>0.5</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4402985074626866</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4402985074626866</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.6132075471698113</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4552238805970149</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4905660377358491</v>
+        <v>0.6132075471698113</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4552238805970149</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5</v>
+        <v>0.6226415094339622</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.5447761194029851</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5</v>
+        <v>0.6226415094339622</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.5447761194029851</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5188679245283019</v>
+        <v>0.6320754716981132</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5188679245283019</v>
+        <v>0.6320754716981132</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.6415094339622641</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.4850746268656717</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.6415094339622641</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.4850746268656717</v>
+        <v>0.5597014925373134</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5377358490566038</v>
+        <v>0.6509433962264151</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5377358490566038</v>
+        <v>0.6509433962264151</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5223880597014925</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5373134328358209</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5566037735849056</v>
+        <v>0.6698113207547169</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.6194029850746269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5566037735849056</v>
+        <v>0.6698113207547169</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.6194029850746269</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.6886792452830188</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.5746268656716418</v>
+        <v>0.6343283582089553</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5660377358490566</v>
+        <v>0.6886792452830188</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.5746268656716418</v>
+        <v>0.6343283582089553</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5754716981132075</v>
+        <v>0.7075471698113207</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.6791044776119403</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5754716981132075</v>
+        <v>0.7075471698113207</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.6791044776119403</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.7169811320754716</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6343283582089553</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.7169811320754716</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6343283582089553</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.7264150943396226</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6492537313432836</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.7264150943396226</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6492537313432836</v>
+        <v>0.7089552238805971</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.7452830188679245</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.664179104477612</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.7452830188679245</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.664179104477612</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6320754716981132</v>
+        <v>0.7547169811320755</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.6791044776119403</v>
+        <v>0.753731343283582</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6320754716981132</v>
+        <v>0.7547169811320755</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6791044776119403</v>
+        <v>0.753731343283582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6415094339622641</v>
+        <v>0.7641509433962265</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7089552238805971</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6415094339622641</v>
+        <v>0.7641509433962265</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7089552238805971</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.7735849056603774</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7164179104477612</v>
+        <v>0.7686567164179104</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.7735849056603774</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7164179104477612</v>
+        <v>0.7686567164179104</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7075471698113207</v>
+        <v>0.7830188679245284</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7238805970149254</v>
+        <v>0.7835820895522388</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7075471698113207</v>
+        <v>0.7830188679245284</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7238805970149254</v>
+        <v>0.7835820895522388</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.7924528301886793</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.746268656716418</v>
+        <v>0.7910447761194029</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.7924528301886793</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.746268656716418</v>
+        <v>0.7910447761194029</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7264150943396226</v>
+        <v>0.8018867924528302</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.753731343283582</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7264150943396226</v>
+        <v>0.8018867924528302</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.753731343283582</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.8113207547169812</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.7686567164179104</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.8113207547169812</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.7686567164179104</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7641509433962265</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.8432835820895522</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7641509433962265</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.7985074626865671</v>
+        <v>0.8432835820895522</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.8490566037735849</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8059701492537313</v>
+        <v>0.8656716417910447</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.8490566037735849</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8059701492537313</v>
+        <v>0.8656716417910447</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8584905660377359</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8134328358208955</v>
+        <v>0.8955223880597015</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.8584905660377359</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8134328358208955</v>
+        <v>0.8955223880597015</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8018867924528302</v>
+        <v>0.8962264150943396</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.8208955223880597</v>
+        <v>0.9104477611940298</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8018867924528302</v>
+        <v>0.8962264150943396</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8208955223880597</v>
+        <v>0.9104477611940298</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.9056603773584906</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.8283582089552238</v>
+        <v>0.917910447761194</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.9056603773584906</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.8283582089552238</v>
+        <v>0.917910447761194</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8207547169811321</v>
+        <v>0.9150943396226415</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.8432835820895522</v>
+        <v>0.9328358208955224</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8207547169811321</v>
+        <v>0.9150943396226415</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>0.8432835820895522</v>
+        <v>0.9328358208955224</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.9528301886792453</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>0.8507462686567164</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.9528301886792453</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>0.8507462686567164</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.9622641509433962</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>0.8656716417910447</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.9622641509433962</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>0.8656716417910447</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.9716981132075472</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.9701492537313433</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.9716981132075472</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.9701492537313433</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.9811320754716981</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="n">
-        <v>0.8880597014925373</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.9811320754716981</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>0.8880597014925373</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9339622641509434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>0.9029850746268657</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5059138270909602</v>
+        <v>0.5479442410588565</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9339622641509434</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.9029850746268657</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9328358208955224</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9622641509433962</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>0.9328358208955224</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9716981132075472</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9716981132075472</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9811320754716981</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.9811320754716981</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="n">
-        <v>1</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.5059138270909602</v>
-      </c>
-      <c r="C132" t="n">
         <v>1</v>
       </c>
     </row>
